--- a/src/analysis_examples/circadb/results_jtk/cosinor_10594221_lrrc49_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10594221_lrrc49_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.1739681651223675, 0.341830862618375]</t>
+          <t>[0.17261037588549683, 0.34318865185524566]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.465741168133917e-06</v>
+        <v>3.091548152367452e-06</v>
       </c>
       <c r="N2" t="n">
-        <v>2.465741168133917e-06</v>
+        <v>3.091548152367452e-06</v>
       </c>
       <c r="O2" t="n">
         <v>-0.7170001251436169</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.0314738642416934, -0.40252638604554036]</t>
+          <t>[-1.0440528138056173, -0.38994743648161645]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.0001105884644634347</v>
+        <v>0.0001707356128521909</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0001105884644634347</v>
+        <v>0.0001707356128521909</v>
       </c>
       <c r="S2" t="n">
         <v>0.4447692886319029</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.4015519335667734, 0.48798664369703243]</t>
+          <t>[0.4015728099862042, 0.4879657672776016]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>2.85057057057066</v>
       </c>
       <c r="X2" t="n">
-        <v>1.600320320320375</v>
+        <v>1.55031031031036</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.100820820820946</v>
+        <v>4.15083083083096</v>
       </c>
     </row>
   </sheetData>
